--- a/ZD.xlsx
+++ b/ZD.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\库\桌面\YB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F82D10-6334-40EC-A5B3-BADA179D9016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9324" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YUE" sheetId="2" r:id="rId1"/>
@@ -28,6 +22,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -49,10 +45,25 @@
     <t>花呗</t>
   </si>
   <si>
+    <t>招联(14)</t>
+  </si>
+  <si>
+    <t>借呗(6)</t>
+  </si>
+  <si>
+    <t>借呗(9)</t>
+  </si>
+  <si>
     <t>生活费</t>
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>招联(13)</t>
+  </si>
+  <si>
+    <t>金条(12)</t>
   </si>
   <si>
     <t>DAY-3</t>
@@ -114,31 +125,19 @@
   <si>
     <t>话费</t>
   </si>
-  <si>
-    <t>借呗(6)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>借呗(9)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>招联(14)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>金条(12)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +147,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1" tint="0.34998626667073579"/>
+      <color theme="1" tint="0.349986266670736"/>
       <name val="晴圆"/>
       <charset val="134"/>
     </font>
@@ -198,7 +197,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="9" tint="0.39997558519241921"/>
+      <color theme="9" tint="0.399975585192419"/>
       <name val="晴圆"/>
       <charset val="134"/>
     </font>
@@ -215,39 +214,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="1" tint="0.349986266670736"/>
+      <name val="幼圆"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="幼圆"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="6"/>
       <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FFC00000"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="幼圆"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="幼圆"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -255,14 +249,12 @@
       <sz val="18"/>
       <color theme="6"/>
       <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.349986266670736"/>
       <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -270,26 +262,348 @@
       <sz val="18"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="幼圆"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
-      <color theme="2" tint="-0.249977111117893"/>
-      <name val="幼圆"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,9 +611,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -343,54 +899,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -677,96 +1277,97 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="13" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="14"/>
-    <col min="2" max="2" width="18.5" style="16" customWidth="1"/>
-    <col min="3" max="16383" width="16" style="14" customWidth="1"/>
-    <col min="16384" max="16384" width="16" style="14"/>
+    <col min="1" max="1" width="16" style="16"/>
+    <col min="2" max="2" width="18.5" style="17" customWidth="1"/>
+    <col min="3" max="16383" width="16" style="16" customWidth="1"/>
+    <col min="16384" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" s="13" customFormat="1" ht="29.25" customHeight="1" spans="1:14">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14" s="13" customFormat="1">
-      <c r="A2" s="13" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:10">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14">
         <f>SUM(C2:AA2)</f>
         <v>-117000</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="14">
         <v>-41000</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="14">
         <v>-15000</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="14">
         <v>-16000</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="14">
         <v>-21000</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>-24000</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="14">
         <v>-3300</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="14">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A3" s="14">
+    <row r="3" s="15" customFormat="1" ht="23.1" customHeight="1" spans="1:10">
+      <c r="A3" s="16">
         <v>1.29</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <f>SUM(C3:AA3)</f>
         <v>-13650</v>
       </c>
@@ -792,11 +1393,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="15" customFormat="1">
-      <c r="A4" s="14">
+    <row r="4" s="15" customFormat="1" spans="1:10">
+      <c r="A4" s="16">
         <v>2.29</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <f t="shared" ref="B4:B13" si="0">SUM(C4:AA4)</f>
         <v>-13650</v>
       </c>
@@ -822,11 +1423,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="14">
+    <row r="5" spans="1:10">
+      <c r="A5" s="16">
         <v>3.29</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -853,11 +1454,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="14">
+    <row r="6" spans="1:7">
+      <c r="A6" s="16">
         <v>4.29</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -877,11 +1478,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="14">
+    <row r="7" spans="1:7">
+      <c r="A7" s="16">
         <v>5.29</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -901,11 +1502,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="14">
+    <row r="8" spans="1:7">
+      <c r="A8" s="16">
         <v>6.29</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -925,11 +1526,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="14">
+    <row r="9" spans="1:7">
+      <c r="A9" s="16">
         <v>7.29</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -949,11 +1550,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="14">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:7">
+      <c r="A10" s="16">
+        <v>8.29</v>
+      </c>
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -973,11 +1574,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="14">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:7">
+      <c r="A11" s="16">
+        <v>9.29</v>
+      </c>
+      <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -997,11 +1598,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="14">
+    <row r="12" spans="1:7">
+      <c r="A12" s="16">
         <v>10.29</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -1021,11 +1622,11 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="27" customHeight="1">
-      <c r="A13" s="14">
+    <row r="13" ht="27" customHeight="1" spans="1:7">
+      <c r="A13" s="16">
         <v>11.29</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -1046,111 +1647,113 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BCC5B64-ECFD-474E-BF88-4DA462012FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="13" topLeftCell="O14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="13" topLeftCell="P32" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="I13 C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="16" customWidth="1"/>
-    <col min="3" max="9" width="16" style="14" customWidth="1"/>
-    <col min="10" max="10" width="16" style="24" customWidth="1"/>
-    <col min="11" max="11" width="16" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="16" style="14"/>
+    <col min="1" max="1" width="16" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="17" customWidth="1"/>
+    <col min="3" max="9" width="16" style="16" customWidth="1"/>
+    <col min="10" max="10" width="16" style="18" customWidth="1"/>
+    <col min="11" max="11" width="16" style="16" customWidth="1"/>
+    <col min="12" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" s="13" customFormat="1" ht="29.25" customHeight="1" spans="1:16">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="19"/>
+      <c r="E1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="20"/>
       <c r="J1" s="22"/>
-      <c r="K1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-    </row>
-    <row r="2" spans="1:16" s="13" customFormat="1">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="K1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:12">
+      <c r="A2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14">
         <f>SUM(C2:AC2)</f>
-        <v>-32000</v>
-      </c>
-      <c r="C2" s="13">
-        <v>-41000</v>
-      </c>
-      <c r="D2" s="13">
+        <v>115000</v>
+      </c>
+      <c r="C2" s="14">
+        <v>-40000</v>
+      </c>
+      <c r="D2" s="14">
         <v>-15000</v>
       </c>
-      <c r="E2" s="13">
-        <v>-16000</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="14">
+        <v>-15000</v>
+      </c>
+      <c r="F2" s="14">
         <v>-21000</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="14">
         <v>-24000</v>
       </c>
-      <c r="H2" s="13">
-        <v>85000</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
+      <c r="H2" s="14">
+        <v>100000</v>
+      </c>
+      <c r="I2" s="14">
+        <v>130000</v>
       </c>
       <c r="J2" s="23"/>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <v>-3300</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="14">
         <v>3300</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A3" s="14">
+    <row r="3" s="15" customFormat="1" ht="23.1" customHeight="1" spans="1:12">
+      <c r="A3" s="16">
         <v>1.29</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="14">
         <f>SUM(C3:AC3)</f>
         <v>-13650</v>
       </c>
@@ -1177,11 +1780,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1">
-      <c r="A4" s="14">
+    <row r="4" s="15" customFormat="1" spans="1:12">
+      <c r="A4" s="16">
         <v>2.29</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="14">
         <f t="shared" ref="B4:B13" si="0">SUM(C4:AC4)</f>
         <v>-13650</v>
       </c>
@@ -1208,11 +1811,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="14">
+    <row r="5" spans="1:12">
+      <c r="A5" s="16">
         <v>3.29</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -1241,11 +1844,11 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="14">
+    <row r="6" spans="1:8">
+      <c r="A6" s="16">
         <v>4.29</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -1266,11 +1869,11 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="14">
+    <row r="7" spans="1:8">
+      <c r="A7" s="16">
         <v>5.29</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>-13650</v>
       </c>
@@ -1291,11 +1894,11 @@
       </c>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="14">
+    <row r="8" spans="1:11">
+      <c r="A8" s="16">
         <v>6.29</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>-184660</v>
       </c>
@@ -1317,21 +1920,21 @@
       <c r="H8" s="15">
         <v>-160000</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="16">
         <v>-15110</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="18">
         <v>20600</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="16">
         <v>-16500</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="14">
+    <row r="9" spans="1:10">
+      <c r="A9" s="16">
         <v>7.29</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>-57350</v>
       </c>
@@ -1350,21 +1953,21 @@
       <c r="G9" s="15">
         <v>-2800</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="21">
         <v>-45000</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="24">
         <v>-4200</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="18">
         <v>5500</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="14">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="B10" s="13">
+    <row r="10" spans="1:11">
+      <c r="A10" s="16">
+        <v>8.29</v>
+      </c>
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>-96150</v>
       </c>
@@ -1386,19 +1989,19 @@
       <c r="H10" s="15">
         <v>-85000</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <v>-8000</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="18">
         <v>10500</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="14">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="B11" s="13">
+    <row r="11" spans="1:12">
+      <c r="A11" s="16">
+        <v>9.29</v>
+      </c>
+      <c r="B11" s="14">
         <f t="shared" si="0"/>
         <v>-108850</v>
       </c>
@@ -1420,24 +2023,24 @@
       <c r="H11" s="15">
         <v>-100000</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="16">
         <v>-9400</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="18">
         <v>12200</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="16">
         <v>-12000</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="16">
         <v>14000</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="14">
+    <row r="12" spans="1:14">
+      <c r="A12" s="16">
         <v>10.29</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="14">
         <f t="shared" si="0"/>
         <v>-104700</v>
       </c>
@@ -1459,30 +2062,30 @@
       <c r="H12" s="15">
         <v>-120000</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="16">
         <v>-11250</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="18">
         <v>14600</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="16">
         <v>-12600</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="16">
         <v>18000</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="16">
         <v>-13800</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="16">
         <v>34000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="27" customHeight="1">
-      <c r="A13" s="14">
+    <row r="13" ht="27" customHeight="1" spans="1:12">
+      <c r="A13" s="16">
         <v>11.29</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="14">
         <f t="shared" si="0"/>
         <v>-125350</v>
       </c>
@@ -1504,67 +2107,68 @@
       <c r="H13" s="15">
         <v>-130000</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="16">
         <v>-12200</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="18">
         <v>16000</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="16">
         <v>-13500</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="16">
         <v>28000</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="C16" s="14">
+    <row r="16" spans="3:7">
+      <c r="C16" s="16">
         <v>4000</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="16">
         <v>1000</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="16">
         <v>3300</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="16">
         <v>2400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1575,9 +2179,9 @@
       <c r="K1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -1590,81 +2194,83 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:2">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="4"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
       <c r="C9" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:34">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4">
         <v>45106</v>
@@ -1906,7 +2512,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -2010,7 +2616,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
@@ -2114,7 +2720,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2216,54 +2822,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="16382" width="16" style="2" customWidth="1"/>
     <col min="16383" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4">
         <v>45108</v>
@@ -2359,7 +2967,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" s="3">
         <f>SUM(B2:BAZ2)+A9+A11</f>
         <v>562</v>
@@ -2455,9 +3063,9 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>17</v>
@@ -2520,9 +3128,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -2585,9 +3193,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2650,34 +3258,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:1">
       <c r="A13" s="7">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ZD.xlsx
+++ b/ZD.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\库\桌面\YB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6D675-8953-45B2-871E-7E7BC4607D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9324" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="YUE" sheetId="2" r:id="rId1"/>
@@ -22,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>日期</t>
   </si>
@@ -63,9 +67,6 @@
     <t>招联(13)</t>
   </si>
   <si>
-    <t>金条(12)</t>
-  </si>
-  <si>
     <t>DAY-3</t>
   </si>
   <si>
@@ -124,20 +125,28 @@
   </si>
   <si>
     <t>话费</t>
+  </si>
+  <si>
+    <t>借呗(5)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>借呗(8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>微粒贷(20)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +156,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="1" tint="0.349986266670736"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="晴圆"/>
       <charset val="134"/>
     </font>
@@ -197,7 +206,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <color theme="9" tint="0.399975585192419"/>
+      <color theme="9" tint="0.39994506668294322"/>
       <name val="晴圆"/>
       <charset val="134"/>
     </font>
@@ -216,32 +225,37 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1" tint="0.349986266670736"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFC00000"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="6"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -249,12 +263,14 @@
       <sz val="18"/>
       <color theme="6"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
-      <color theme="0" tint="-0.349986266670736"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -262,348 +278,34 @@
       <sz val="18"/>
       <color theme="2" tint="-0.249977111117893"/>
       <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <color theme="8"/>
+      <name val="幼圆"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -611,251 +313,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -923,9 +383,6 @@
     <xf numFmtId="58" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -935,62 +392,21 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1277,23 +693,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="12" ySplit="13" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16" style="16"/>
     <col min="2" max="2" width="18.5" style="17" customWidth="1"/>
@@ -1301,7 +716,7 @@
     <col min="16384" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="29.25" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +748,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:10">
+    <row r="2" spans="1:14" s="14" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +778,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" ht="23.1" customHeight="1" spans="1:10">
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A3" s="16">
         <v>1.29</v>
       </c>
@@ -1393,7 +808,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" spans="1:10">
+    <row r="4" spans="1:14" s="15" customFormat="1">
       <c r="A4" s="16">
         <v>2.29</v>
       </c>
@@ -1423,7 +838,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:14">
       <c r="A5" s="16">
         <v>3.29</v>
       </c>
@@ -1454,7 +869,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:14">
       <c r="A6" s="16">
         <v>4.29</v>
       </c>
@@ -1478,7 +893,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:14">
       <c r="A7" s="16">
         <v>5.29</v>
       </c>
@@ -1502,7 +917,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:14">
       <c r="A8" s="16">
         <v>6.29</v>
       </c>
@@ -1526,7 +941,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:14">
       <c r="A9" s="16">
         <v>7.29</v>
       </c>
@@ -1550,9 +965,9 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:14">
       <c r="A10" s="16">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
@@ -1574,9 +989,9 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:14">
       <c r="A11" s="16">
-        <v>9.29</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
@@ -1598,7 +1013,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:14">
       <c r="A12" s="16">
         <v>10.29</v>
       </c>
@@ -1622,7 +1037,7 @@
         <v>-2800</v>
       </c>
     </row>
-    <row r="13" ht="27" customHeight="1" spans="1:7">
+    <row r="13" spans="1:14" ht="27" customHeight="1">
       <c r="A13" s="16">
         <v>11.29</v>
       </c>
@@ -1647,36 +1062,36 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="14" ySplit="13" topLeftCell="P32" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="14" ySplit="13" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="I13 C3"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="2" sqref="G2 F2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="16" style="16" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="17" customWidth="1"/>
-    <col min="3" max="9" width="16" style="16" customWidth="1"/>
+    <col min="3" max="7" width="16" style="16" customWidth="1"/>
+    <col min="8" max="8" width="18.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="16" style="16" customWidth="1"/>
     <col min="10" max="10" width="16" style="18" customWidth="1"/>
     <col min="11" max="11" width="16" style="16" customWidth="1"/>
     <col min="12" max="16384" width="16" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="1" ht="29.25" customHeight="1" spans="1:16">
+    <row r="1" spans="1:16" s="13" customFormat="1" ht="29.25" customHeight="1">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1689,20 +1104,20 @@
       <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>10</v>
+      <c r="F1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="I1" s="20"/>
-      <c r="J1" s="22"/>
+      <c r="J1" s="21"/>
       <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
@@ -1712,36 +1127,33 @@
       <c r="O1" s="20"/>
       <c r="P1" s="20"/>
     </row>
-    <row r="2" s="14" customFormat="1" spans="1:12">
+    <row r="2" spans="1:16" s="14" customFormat="1">
       <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="14">
         <f>SUM(C2:AC2)</f>
-        <v>115000</v>
+        <v>-130300</v>
       </c>
       <c r="C2" s="14">
-        <v>-40000</v>
+        <v>-41000</v>
       </c>
       <c r="D2" s="14">
         <v>-15000</v>
       </c>
       <c r="E2" s="14">
-        <v>-15000</v>
+        <v>-25600</v>
       </c>
       <c r="F2" s="14">
+        <v>-17700</v>
+      </c>
+      <c r="G2" s="14">
         <v>-21000</v>
       </c>
-      <c r="G2" s="14">
-        <v>-24000</v>
-      </c>
       <c r="H2" s="14">
-        <v>100000</v>
-      </c>
-      <c r="I2" s="14">
-        <v>130000</v>
-      </c>
-      <c r="J2" s="23"/>
+        <v>-10000</v>
+      </c>
+      <c r="J2" s="22"/>
       <c r="K2" s="14">
         <v>-3300</v>
       </c>
@@ -1749,13 +1161,13 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="1" ht="23.1" customHeight="1" spans="1:12">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="23.1" customHeight="1">
       <c r="A3" s="16">
         <v>1.29</v>
       </c>
       <c r="B3" s="14">
         <f>SUM(C3:AC3)</f>
-        <v>-13650</v>
+        <v>-14980</v>
       </c>
       <c r="C3" s="15">
         <v>-4500</v>
@@ -1764,7 +1176,7 @@
         <v>-1300</v>
       </c>
       <c r="E3" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F3" s="15">
         <v>-3800</v>
@@ -1772,7 +1184,10 @@
       <c r="G3" s="15">
         <v>-2800</v>
       </c>
-      <c r="J3" s="23"/>
+      <c r="H3" s="15">
+        <v>-780</v>
+      </c>
+      <c r="J3" s="22"/>
       <c r="K3" s="15">
         <v>-3300</v>
       </c>
@@ -1780,13 +1195,13 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="4" s="15" customFormat="1" spans="1:12">
+    <row r="4" spans="1:16" s="15" customFormat="1">
       <c r="A4" s="16">
         <v>2.29</v>
       </c>
       <c r="B4" s="14">
         <f t="shared" ref="B4:B13" si="0">SUM(C4:AC4)</f>
-        <v>-13650</v>
+        <v>-14980</v>
       </c>
       <c r="C4" s="15">
         <v>-4500</v>
@@ -1795,7 +1210,7 @@
         <v>-1300</v>
       </c>
       <c r="E4" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F4" s="15">
         <v>-3800</v>
@@ -1803,7 +1218,10 @@
       <c r="G4" s="15">
         <v>-2800</v>
       </c>
-      <c r="J4" s="23"/>
+      <c r="H4" s="15">
+        <v>-780</v>
+      </c>
+      <c r="J4" s="22"/>
       <c r="K4" s="15">
         <v>-3300</v>
       </c>
@@ -1811,13 +1229,13 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:16">
       <c r="A5" s="16">
         <v>3.29</v>
       </c>
       <c r="B5" s="14">
         <f t="shared" si="0"/>
-        <v>-13650</v>
+        <v>-14980</v>
       </c>
       <c r="C5" s="15">
         <v>-4500</v>
@@ -1826,7 +1244,7 @@
         <v>-1300</v>
       </c>
       <c r="E5" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F5" s="15">
         <v>-3800</v>
@@ -1834,9 +1252,11 @@
       <c r="G5" s="15">
         <v>-2800</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="15">
+        <v>-780</v>
+      </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="23"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="15">
         <v>-3300</v>
       </c>
@@ -1844,13 +1264,13 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:16">
       <c r="A6" s="16">
         <v>4.29</v>
       </c>
       <c r="B6" s="14">
         <f t="shared" si="0"/>
-        <v>-13650</v>
+        <v>-14980</v>
       </c>
       <c r="C6" s="15">
         <v>-4500</v>
@@ -1859,7 +1279,7 @@
         <v>-1300</v>
       </c>
       <c r="E6" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F6" s="15">
         <v>-3800</v>
@@ -1867,15 +1287,17 @@
       <c r="G6" s="15">
         <v>-2800</v>
       </c>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="15">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="16">
         <v>5.29</v>
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>-13650</v>
+        <v>-14980</v>
       </c>
       <c r="C7" s="15">
         <v>-4500</v>
@@ -1884,7 +1306,7 @@
         <v>-1300</v>
       </c>
       <c r="E7" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F7" s="15">
         <v>-3800</v>
@@ -1892,15 +1314,17 @@
       <c r="G7" s="15">
         <v>-2800</v>
       </c>
-      <c r="H7" s="15"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="H7" s="15">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="16">
         <v>6.29</v>
       </c>
       <c r="B8" s="14">
         <f t="shared" si="0"/>
-        <v>-184660</v>
+        <v>-14980</v>
       </c>
       <c r="C8" s="15">
         <v>-4500</v>
@@ -1909,7 +1333,7 @@
         <v>-1300</v>
       </c>
       <c r="E8" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F8" s="15">
         <v>-3800</v>
@@ -1918,25 +1342,16 @@
         <v>-2800</v>
       </c>
       <c r="H8" s="15">
-        <v>-160000</v>
-      </c>
-      <c r="I8" s="16">
-        <v>-15110</v>
-      </c>
-      <c r="J8" s="18">
-        <v>20600</v>
-      </c>
-      <c r="K8" s="16">
-        <v>-16500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="16">
         <v>7.29</v>
       </c>
       <c r="B9" s="14">
         <f t="shared" si="0"/>
-        <v>-57350</v>
+        <v>-14980</v>
       </c>
       <c r="C9" s="15">
         <v>-4500</v>
@@ -1945,7 +1360,7 @@
         <v>-1300</v>
       </c>
       <c r="E9" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F9" s="15">
         <v>-3800</v>
@@ -1953,23 +1368,18 @@
       <c r="G9" s="15">
         <v>-2800</v>
       </c>
-      <c r="H9" s="21">
-        <v>-45000</v>
-      </c>
-      <c r="I9" s="24">
-        <v>-4200</v>
-      </c>
-      <c r="J9" s="18">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="H9" s="15">
+        <v>-780</v>
+      </c>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="16">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
-        <v>-96150</v>
+        <v>-14980</v>
       </c>
       <c r="C10" s="15">
         <v>-4500</v>
@@ -1978,7 +1388,7 @@
         <v>-1300</v>
       </c>
       <c r="E10" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F10" s="15">
         <v>-3800</v>
@@ -1987,23 +1397,17 @@
         <v>-2800</v>
       </c>
       <c r="H10" s="15">
-        <v>-85000</v>
-      </c>
-      <c r="I10" s="16">
-        <v>-8000</v>
-      </c>
-      <c r="J10" s="18">
-        <v>10500</v>
+        <v>-780</v>
       </c>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:16">
       <c r="A11" s="16">
-        <v>9.29</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>-108850</v>
+        <v>-14980</v>
       </c>
       <c r="C11" s="15">
         <v>-4500</v>
@@ -2012,7 +1416,7 @@
         <v>-1300</v>
       </c>
       <c r="E11" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F11" s="15">
         <v>-3800</v>
@@ -2021,28 +1425,16 @@
         <v>-2800</v>
       </c>
       <c r="H11" s="15">
-        <v>-100000</v>
-      </c>
-      <c r="I11" s="16">
-        <v>-9400</v>
-      </c>
-      <c r="J11" s="18">
-        <v>12200</v>
-      </c>
-      <c r="K11" s="16">
-        <v>-12000</v>
-      </c>
-      <c r="L11" s="16">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="16">
         <v>10.29</v>
       </c>
       <c r="B12" s="14">
         <f t="shared" si="0"/>
-        <v>-104700</v>
+        <v>-14980</v>
       </c>
       <c r="C12" s="15">
         <v>-4500</v>
@@ -2051,7 +1443,7 @@
         <v>-1300</v>
       </c>
       <c r="E12" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F12" s="15">
         <v>-3800</v>
@@ -2060,34 +1452,16 @@
         <v>-2800</v>
       </c>
       <c r="H12" s="15">
-        <v>-120000</v>
-      </c>
-      <c r="I12" s="16">
-        <v>-11250</v>
-      </c>
-      <c r="J12" s="18">
-        <v>14600</v>
-      </c>
-      <c r="K12" s="16">
-        <v>-12600</v>
-      </c>
-      <c r="L12" s="16">
-        <v>18000</v>
-      </c>
-      <c r="M12" s="16">
-        <v>-13800</v>
-      </c>
-      <c r="N12" s="16">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="1:12">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27" customHeight="1">
       <c r="A13" s="16">
         <v>11.29</v>
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>-125350</v>
+        <v>-14980</v>
       </c>
       <c r="C13" s="15">
         <v>-4500</v>
@@ -2096,7 +1470,7 @@
         <v>-1300</v>
       </c>
       <c r="E13" s="15">
-        <v>-1250</v>
+        <v>-1800</v>
       </c>
       <c r="F13" s="15">
         <v>-3800</v>
@@ -2105,22 +1479,10 @@
         <v>-2800</v>
       </c>
       <c r="H13" s="15">
-        <v>-130000</v>
-      </c>
-      <c r="I13" s="16">
-        <v>-12200</v>
-      </c>
-      <c r="J13" s="18">
-        <v>16000</v>
-      </c>
-      <c r="K13" s="16">
-        <v>-13500</v>
-      </c>
-      <c r="L13" s="16">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
+        <v>-780</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="C16" s="16">
         <v>4000</v>
       </c>
@@ -2135,40 +1497,39 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -2179,9 +1540,9 @@
       <c r="K1" s="4"/>
       <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>6</v>
@@ -2194,81 +1555,79 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11" t="s">
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12" t="s">
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
-      <c r="C9" s="12" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AI3" sqref="AI3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="2" customWidth="1"/>
     <col min="3" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:34">
+    <row r="1" spans="1:34" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2512,7 +1871,7 @@
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>10</v>
@@ -2616,7 +1975,7 @@
     </row>
     <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
@@ -2720,7 +2079,7 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2822,54 +2181,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="6">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.2"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="16382" width="16" style="2" customWidth="1"/>
     <col min="16383" max="16384" width="16" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:32">
+    <row r="1" spans="1:32" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +2324,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:32">
       <c r="A2" s="3">
         <f>SUM(B2:BAZ2)+A9+A11</f>
         <v>562</v>
@@ -3063,9 +2420,9 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>17</v>
@@ -3128,9 +2485,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2">
         <v>5</v>
@@ -3193,9 +2550,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -3258,34 +2615,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" s="6">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:32">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:32">
       <c r="A13" s="7">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>